--- a/data/pca/factorExposure/factorExposure_2017-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.006606348864944322</v>
+        <v>-0.01110407869041739</v>
       </c>
       <c r="C2">
-        <v>0.004641537925717267</v>
+        <v>0.03893004469804858</v>
       </c>
       <c r="D2">
-        <v>0.03957677563074668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03198911737227356</v>
+      </c>
+      <c r="E2">
+        <v>0.05414442109454408</v>
+      </c>
+      <c r="F2">
+        <v>0.00806345283457921</v>
+      </c>
+      <c r="G2">
+        <v>0.1060002760453671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05138755576800982</v>
+        <v>-0.0385241124900875</v>
       </c>
       <c r="C3">
-        <v>-0.0577897969932425</v>
+        <v>0.09402063284087533</v>
       </c>
       <c r="D3">
-        <v>0.09856401375362418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01854532964654237</v>
+      </c>
+      <c r="E3">
+        <v>0.1035429818831072</v>
+      </c>
+      <c r="F3">
+        <v>0.01945688255204943</v>
+      </c>
+      <c r="G3">
+        <v>0.1330455176476212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04688062127135002</v>
+        <v>-0.05474056779253358</v>
       </c>
       <c r="C4">
-        <v>-0.02210478388413704</v>
+        <v>0.0638065113158294</v>
       </c>
       <c r="D4">
-        <v>0.06500316583754404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02624203954037907</v>
+      </c>
+      <c r="E4">
+        <v>0.04838693810040765</v>
+      </c>
+      <c r="F4">
+        <v>0.003583953784001888</v>
+      </c>
+      <c r="G4">
+        <v>0.1004703433600215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01598910273027338</v>
+        <v>-0.03268873140671904</v>
       </c>
       <c r="C6">
-        <v>-0.0172113313303488</v>
+        <v>0.046688255719432</v>
       </c>
       <c r="D6">
-        <v>0.0535371281169128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01898164186691675</v>
+      </c>
+      <c r="E6">
+        <v>0.05372150833964479</v>
+      </c>
+      <c r="F6">
+        <v>0.004924207808278845</v>
+      </c>
+      <c r="G6">
+        <v>0.08663231820472812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.008490364555196575</v>
+        <v>-0.01970533548120601</v>
       </c>
       <c r="C7">
-        <v>-0.009025212743600488</v>
+        <v>0.03527650880433948</v>
       </c>
       <c r="D7">
-        <v>0.03664753040178675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01529038500758348</v>
+      </c>
+      <c r="E7">
+        <v>0.02448355568324867</v>
+      </c>
+      <c r="F7">
+        <v>-0.004326542202658407</v>
+      </c>
+      <c r="G7">
+        <v>0.1257686413112936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005101548826905934</v>
+        <v>-0.003545985817322551</v>
       </c>
       <c r="C8">
-        <v>0.0002191501175235823</v>
+        <v>0.01974481459383375</v>
       </c>
       <c r="D8">
-        <v>0.0007476280848541822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004411330711102673</v>
+      </c>
+      <c r="E8">
+        <v>0.03663540679309747</v>
+      </c>
+      <c r="F8">
+        <v>0.001481158064084033</v>
+      </c>
+      <c r="G8">
+        <v>0.06873223769309705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0196172140795593</v>
+        <v>-0.03281067111733321</v>
       </c>
       <c r="C9">
-        <v>-0.01268167464072503</v>
+        <v>0.04550585278869771</v>
       </c>
       <c r="D9">
-        <v>0.04270916640727979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01724899912413214</v>
+      </c>
+      <c r="E9">
+        <v>0.03388838824453803</v>
+      </c>
+      <c r="F9">
+        <v>-0.0002422389130622999</v>
+      </c>
+      <c r="G9">
+        <v>0.1017318507243533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1209019652169949</v>
+        <v>-0.09715209373070428</v>
       </c>
       <c r="C10">
-        <v>0.06189545781158322</v>
+        <v>-0.189727539505246</v>
       </c>
       <c r="D10">
-        <v>-0.1671267324639352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01546181053660499</v>
+      </c>
+      <c r="E10">
+        <v>0.01898357732175664</v>
+      </c>
+      <c r="F10">
+        <v>0.02083378310722379</v>
+      </c>
+      <c r="G10">
+        <v>0.05281357530195708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02467419667598915</v>
+        <v>-0.03634310271892809</v>
       </c>
       <c r="C11">
-        <v>-0.0314361314617532</v>
+        <v>0.05256611142261459</v>
       </c>
       <c r="D11">
-        <v>0.04618279401221213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.00286872164771878</v>
+      </c>
+      <c r="E11">
+        <v>0.02420941817827843</v>
+      </c>
+      <c r="F11">
+        <v>-0.01461833820495042</v>
+      </c>
+      <c r="G11">
+        <v>0.08115452452174397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.02380277660676356</v>
+        <v>-0.03838472061451038</v>
       </c>
       <c r="C12">
-        <v>-0.02262629166191888</v>
+        <v>0.04690237195157538</v>
       </c>
       <c r="D12">
-        <v>0.04135628992827174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006796404821757129</v>
+      </c>
+      <c r="E12">
+        <v>0.0131399628899903</v>
+      </c>
+      <c r="F12">
+        <v>-0.001963986288397779</v>
+      </c>
+      <c r="G12">
+        <v>0.07679507491698882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.005409732723861398</v>
+        <v>-0.01162114835561146</v>
       </c>
       <c r="C13">
-        <v>0.002432439284664082</v>
+        <v>0.03459749422276426</v>
       </c>
       <c r="D13">
-        <v>0.03821544192537883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02898018640509968</v>
+      </c>
+      <c r="E13">
+        <v>0.05815738321909034</v>
+      </c>
+      <c r="F13">
+        <v>0.0144044126435252</v>
+      </c>
+      <c r="G13">
+        <v>0.1413537134887471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001757761231406176</v>
+        <v>-0.00864278758396096</v>
       </c>
       <c r="C14">
-        <v>-0.004880751464532485</v>
+        <v>0.02472002908800228</v>
       </c>
       <c r="D14">
-        <v>0.02322726889643919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01140574855294284</v>
+      </c>
+      <c r="E14">
+        <v>0.01937148678661802</v>
+      </c>
+      <c r="F14">
+        <v>0.005271013103588134</v>
+      </c>
+      <c r="G14">
+        <v>0.1159558874669039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02053075329960911</v>
+        <v>-0.03461151876789566</v>
       </c>
       <c r="C16">
-        <v>-0.02187102219049199</v>
+        <v>0.0451962398514746</v>
       </c>
       <c r="D16">
-        <v>0.03107270323726132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002376538665111865</v>
+      </c>
+      <c r="E16">
+        <v>0.01968677391332084</v>
+      </c>
+      <c r="F16">
+        <v>0.004932200198559461</v>
+      </c>
+      <c r="G16">
+        <v>0.08458749192533556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01883525900084831</v>
+        <v>-0.01857053253578931</v>
       </c>
       <c r="C19">
-        <v>-0.01619429934060898</v>
+        <v>0.04671328923646419</v>
       </c>
       <c r="D19">
-        <v>0.04718447563174229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02194870016541593</v>
+      </c>
+      <c r="E19">
+        <v>0.09505131496690483</v>
+      </c>
+      <c r="F19">
+        <v>0.008495429320661111</v>
+      </c>
+      <c r="G19">
+        <v>0.1351712414250161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004823116788004223</v>
+        <v>-0.01443811930295456</v>
       </c>
       <c r="C20">
-        <v>-0.008431580907081753</v>
+        <v>0.03713474820958794</v>
       </c>
       <c r="D20">
-        <v>0.03501350486162304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01573025515686027</v>
+      </c>
+      <c r="E20">
+        <v>0.04612309162851621</v>
+      </c>
+      <c r="F20">
+        <v>0.02447013741628854</v>
+      </c>
+      <c r="G20">
+        <v>0.1118464637746969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.001040220840307083</v>
+        <v>-0.006446017714993714</v>
       </c>
       <c r="C21">
-        <v>-0.001022791251921994</v>
+        <v>0.02989301728953595</v>
       </c>
       <c r="D21">
-        <v>0.02988982996976022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02139790323028512</v>
+      </c>
+      <c r="E21">
+        <v>0.06373401827986407</v>
+      </c>
+      <c r="F21">
+        <v>0.01171615369860168</v>
+      </c>
+      <c r="G21">
+        <v>0.1514245647158392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001202479058012302</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005430752456579028</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002480776316904178</v>
+      </c>
+      <c r="E22">
+        <v>0.0192579343591634</v>
+      </c>
+      <c r="F22">
+        <v>-0.004095114611923638</v>
+      </c>
+      <c r="G22">
+        <v>0.004110444946539323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001178045187147237</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005339809721771117</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002467155785885234</v>
+      </c>
+      <c r="E23">
+        <v>0.01918392252883353</v>
+      </c>
+      <c r="F23">
+        <v>-0.003842969096369168</v>
+      </c>
+      <c r="G23">
+        <v>0.003971853208668885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.01497598697898807</v>
+        <v>-0.030229582606816</v>
       </c>
       <c r="C24">
-        <v>-0.02039112668852292</v>
+        <v>0.04924790742577004</v>
       </c>
       <c r="D24">
-        <v>0.0401598578630777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007535144926686193</v>
+      </c>
+      <c r="E24">
+        <v>0.01885719621225805</v>
+      </c>
+      <c r="F24">
+        <v>-0.00559280117888695</v>
+      </c>
+      <c r="G24">
+        <v>0.08404073338038326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.03268802741859914</v>
+        <v>-0.04338973392227209</v>
       </c>
       <c r="C25">
-        <v>-0.0255414200965136</v>
+        <v>0.05679342051565795</v>
       </c>
       <c r="D25">
-        <v>0.05264671665125979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01160293819669604</v>
+      </c>
+      <c r="E25">
+        <v>0.01128704453571457</v>
+      </c>
+      <c r="F25">
+        <v>-0.004728120943925758</v>
+      </c>
+      <c r="G25">
+        <v>0.09209769256723888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004378678523298471</v>
+        <v>-0.01483803368387607</v>
       </c>
       <c r="C26">
-        <v>0.01782787859302195</v>
+        <v>0.009027045450118962</v>
       </c>
       <c r="D26">
-        <v>0.012239413248657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02447325605402872</v>
+      </c>
+      <c r="E26">
+        <v>0.01467302987307996</v>
+      </c>
+      <c r="F26">
+        <v>0.006105673003805422</v>
+      </c>
+      <c r="G26">
+        <v>0.08507030797332847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1513531073506561</v>
+        <v>-0.1279923284320125</v>
       </c>
       <c r="C28">
-        <v>0.08024099001250463</v>
+        <v>-0.2440130175121174</v>
       </c>
       <c r="D28">
-        <v>-0.1845919406780685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007114868398827545</v>
+      </c>
+      <c r="E28">
+        <v>-0.00179582243955207</v>
+      </c>
+      <c r="F28">
+        <v>0.02038302542630656</v>
+      </c>
+      <c r="G28">
+        <v>0.04424172026642569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007332297077746289</v>
+        <v>-0.007915412218880296</v>
       </c>
       <c r="C29">
-        <v>-0.004255648587227741</v>
+        <v>0.02100234522033735</v>
       </c>
       <c r="D29">
-        <v>0.01899668913611871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01022391603168931</v>
+      </c>
+      <c r="E29">
+        <v>0.01177568083683856</v>
+      </c>
+      <c r="F29">
+        <v>0.01014801598741389</v>
+      </c>
+      <c r="G29">
+        <v>0.1058397824579799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02499924535961291</v>
+        <v>-0.03886047997888046</v>
       </c>
       <c r="C30">
-        <v>-0.02388677334586096</v>
+        <v>0.06372465207186208</v>
       </c>
       <c r="D30">
-        <v>0.08083008933269067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03098538367491924</v>
+      </c>
+      <c r="E30">
+        <v>0.07555335116463309</v>
+      </c>
+      <c r="F30">
+        <v>-0.01890096869752763</v>
+      </c>
+      <c r="G30">
+        <v>0.1221754540984742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02901323885838078</v>
+        <v>-0.05295818730426839</v>
       </c>
       <c r="C31">
-        <v>-0.009582996700661654</v>
+        <v>0.03738283026416896</v>
       </c>
       <c r="D31">
-        <v>0.01475110484509916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004117407011621903</v>
+      </c>
+      <c r="E31">
+        <v>0.0004987370713234275</v>
+      </c>
+      <c r="F31">
+        <v>0.03479495155106609</v>
+      </c>
+      <c r="G31">
+        <v>0.09761132975354254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001682126436696534</v>
+        <v>-0.0009722412222276314</v>
       </c>
       <c r="C32">
-        <v>-0.01982025722063269</v>
+        <v>0.01790578273518314</v>
       </c>
       <c r="D32">
-        <v>0.01945186277770574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001434761036973283</v>
+      </c>
+      <c r="E32">
+        <v>0.05162163571604558</v>
+      </c>
+      <c r="F32">
+        <v>-0.02827083829813723</v>
+      </c>
+      <c r="G32">
+        <v>0.0741979864852098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01862364169204673</v>
+        <v>-0.02665806400911289</v>
       </c>
       <c r="C33">
-        <v>-0.02012112019073076</v>
+        <v>0.04621164440103111</v>
       </c>
       <c r="D33">
-        <v>0.05085523317802958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01787243081932032</v>
+      </c>
+      <c r="E33">
+        <v>0.06402417702836757</v>
+      </c>
+      <c r="F33">
+        <v>-0.0057772297496823</v>
+      </c>
+      <c r="G33">
+        <v>0.1591340378128792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.03715409172608941</v>
+        <v>-0.04249780685967107</v>
       </c>
       <c r="C34">
-        <v>-0.04082133563181047</v>
+        <v>0.06022864113718928</v>
       </c>
       <c r="D34">
-        <v>0.04455868632023838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004217909235683966</v>
+      </c>
+      <c r="E34">
+        <v>0.01592504974855283</v>
+      </c>
+      <c r="F34">
+        <v>-0.01794526354619667</v>
+      </c>
+      <c r="G34">
+        <v>0.08256832035646074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008741758431381879</v>
+        <v>-0.01537609871202311</v>
       </c>
       <c r="C36">
-        <v>0.008756986006916375</v>
+        <v>0.005485046121971535</v>
       </c>
       <c r="D36">
-        <v>0.00348086129217309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01340205598472273</v>
+      </c>
+      <c r="E36">
+        <v>0.01781370641080195</v>
+      </c>
+      <c r="F36">
+        <v>0.007108702128207652</v>
+      </c>
+      <c r="G36">
+        <v>0.09762945881430132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02502712139190707</v>
+        <v>-0.030837478917609</v>
       </c>
       <c r="C38">
-        <v>-0.02191872319455689</v>
+        <v>0.0231685778462611</v>
       </c>
       <c r="D38">
-        <v>0.01304240150966613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006910230848388725</v>
+      </c>
+      <c r="E38">
+        <v>0.01442405420221675</v>
+      </c>
+      <c r="F38">
+        <v>0.01531645849410082</v>
+      </c>
+      <c r="G38">
+        <v>0.0922508456027592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01522743559215553</v>
+        <v>-0.03593316444503258</v>
       </c>
       <c r="C39">
-        <v>-0.03876141482732222</v>
+        <v>0.07587783406681237</v>
       </c>
       <c r="D39">
-        <v>0.0795535760765043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01287120244717729</v>
+      </c>
+      <c r="E39">
+        <v>0.036667526943571</v>
+      </c>
+      <c r="F39">
+        <v>-0.01519116210998505</v>
+      </c>
+      <c r="G39">
+        <v>0.09322101658339249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01485647529811986</v>
+        <v>-0.01387162524391543</v>
       </c>
       <c r="C40">
-        <v>-0.00391731506989405</v>
+        <v>0.03397531209182999</v>
       </c>
       <c r="D40">
-        <v>0.02242776907715987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01563912946701557</v>
+      </c>
+      <c r="E40">
+        <v>0.03821127292769131</v>
+      </c>
+      <c r="F40">
+        <v>0.01764005618298924</v>
+      </c>
+      <c r="G40">
+        <v>0.1176374467915978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01078428405310997</v>
+        <v>-0.01951100456189465</v>
       </c>
       <c r="C41">
-        <v>0.004840489058869079</v>
+        <v>-0.001369387066480814</v>
       </c>
       <c r="D41">
-        <v>-0.005323347217219699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005387942264999161</v>
+      </c>
+      <c r="E41">
+        <v>0.01408235251441608</v>
+      </c>
+      <c r="F41">
+        <v>0.01422317234303935</v>
+      </c>
+      <c r="G41">
+        <v>0.09153128385413567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.007313522216479451</v>
+        <v>-0.005331175867703103</v>
       </c>
       <c r="C42">
-        <v>0.04633172263181316</v>
+        <v>0.02864254201541673</v>
       </c>
       <c r="D42">
-        <v>0.09659894009689235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.084588896768013</v>
+      </c>
+      <c r="E42">
+        <v>-0.006940128152131635</v>
+      </c>
+      <c r="F42">
+        <v>0.03565958144128847</v>
+      </c>
+      <c r="G42">
+        <v>-0.01069436610956787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02439176416499271</v>
+        <v>-0.0342349244348172</v>
       </c>
       <c r="C43">
-        <v>-0.003440779408402702</v>
+        <v>0.01323361700274618</v>
       </c>
       <c r="D43">
-        <v>0.004267745947472738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006802383115057219</v>
+      </c>
+      <c r="E43">
+        <v>0.03176749908175149</v>
+      </c>
+      <c r="F43">
+        <v>0.01062227869918301</v>
+      </c>
+      <c r="G43">
+        <v>0.121053561421552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.008822196578429701</v>
+        <v>-0.01242433357836126</v>
       </c>
       <c r="C44">
-        <v>-0.02489244945538298</v>
+        <v>0.05157097654034817</v>
       </c>
       <c r="D44">
-        <v>0.04630811968109205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008201203325608827</v>
+      </c>
+      <c r="E44">
+        <v>0.03801059507777227</v>
+      </c>
+      <c r="F44">
+        <v>0.01743792401126784</v>
+      </c>
+      <c r="G44">
+        <v>0.1210704584387567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.002036772693291282</v>
+        <v>-0.008080965294913627</v>
       </c>
       <c r="C46">
-        <v>0.008348020320082469</v>
+        <v>0.01324786792373103</v>
       </c>
       <c r="D46">
-        <v>0.007284188811966467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01319996525878351</v>
+      </c>
+      <c r="E46">
+        <v>0.004344477918154939</v>
+      </c>
+      <c r="F46">
+        <v>0.01262690261137951</v>
+      </c>
+      <c r="G46">
+        <v>0.1086349740479673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04974854879204166</v>
+        <v>-0.07972483150524379</v>
       </c>
       <c r="C47">
-        <v>-0.04023459436945654</v>
+        <v>0.06891044992651978</v>
       </c>
       <c r="D47">
-        <v>0.04620890662308877</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004871543873361206</v>
+      </c>
+      <c r="E47">
+        <v>-0.006142288664313988</v>
+      </c>
+      <c r="F47">
+        <v>0.04336697758045049</v>
+      </c>
+      <c r="G47">
+        <v>0.09057010247773419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.007337326386819864</v>
+        <v>-0.01831446927003256</v>
       </c>
       <c r="C48">
-        <v>-0.001846992895936351</v>
+        <v>0.009746178732032342</v>
       </c>
       <c r="D48">
-        <v>0.002592607854662622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002977734340465575</v>
+      </c>
+      <c r="E48">
+        <v>0.01206177409532431</v>
+      </c>
+      <c r="F48">
+        <v>0.01869175623436166</v>
+      </c>
+      <c r="G48">
+        <v>0.1057191361629734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05651507338963915</v>
+        <v>-0.0742397113147516</v>
       </c>
       <c r="C50">
-        <v>-0.03657127897729892</v>
+        <v>0.06822600924835849</v>
       </c>
       <c r="D50">
-        <v>0.03985232015912841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001792646469522754</v>
+      </c>
+      <c r="E50">
+        <v>-0.00416094034480683</v>
+      </c>
+      <c r="F50">
+        <v>0.04568186890925091</v>
+      </c>
+      <c r="G50">
+        <v>0.10407974983527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008406049883662637</v>
+        <v>-0.01164866859922702</v>
       </c>
       <c r="C51">
-        <v>-0.01172284578698785</v>
+        <v>0.03381249990720871</v>
       </c>
       <c r="D51">
-        <v>0.0308507537143898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01192704853905413</v>
+      </c>
+      <c r="E51">
+        <v>0.0380211238530548</v>
+      </c>
+      <c r="F51">
+        <v>-0.01010443082528455</v>
+      </c>
+      <c r="G51">
+        <v>0.1175322331247236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07228393958200491</v>
+        <v>-0.08173197617087016</v>
       </c>
       <c r="C53">
-        <v>-0.05435717344512304</v>
+        <v>0.0819724935563219</v>
       </c>
       <c r="D53">
-        <v>0.06479612699271965</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003960471872764119</v>
+      </c>
+      <c r="E53">
+        <v>-0.02789288125109916</v>
+      </c>
+      <c r="F53">
+        <v>0.0491154259751191</v>
+      </c>
+      <c r="G53">
+        <v>0.09647475735535599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02365553472670949</v>
+        <v>-0.03151555528333895</v>
       </c>
       <c r="C54">
-        <v>-0.004623572934097596</v>
+        <v>0.01395179782134877</v>
       </c>
       <c r="D54">
-        <v>-0.005744450621934892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0002699188409138093</v>
+      </c>
+      <c r="E54">
+        <v>0.02477715035259342</v>
+      </c>
+      <c r="F54">
+        <v>0.009532376788373572</v>
+      </c>
+      <c r="G54">
+        <v>0.1095655172051845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.05252070169066286</v>
+        <v>-0.0747119952925788</v>
       </c>
       <c r="C55">
-        <v>-0.0438429211588783</v>
+        <v>0.06683862775212317</v>
       </c>
       <c r="D55">
-        <v>0.0520634308134184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005457746231709906</v>
+      </c>
+      <c r="E55">
+        <v>-0.02785358383949444</v>
+      </c>
+      <c r="F55">
+        <v>0.04749827984485996</v>
+      </c>
+      <c r="G55">
+        <v>0.07299660239489349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.113540537484913</v>
+        <v>-0.1364129737179257</v>
       </c>
       <c r="C56">
-        <v>-0.08216587821763527</v>
+        <v>0.1036865478491875</v>
       </c>
       <c r="D56">
-        <v>0.08642963418688863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01297843812788946</v>
+      </c>
+      <c r="E56">
+        <v>-0.03484288867817614</v>
+      </c>
+      <c r="F56">
+        <v>0.05810216772651459</v>
+      </c>
+      <c r="G56">
+        <v>0.05998444701441021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01064694992365303</v>
+        <v>-0.0038832815770495</v>
       </c>
       <c r="C57">
-        <v>0.01181029501851255</v>
+        <v>0.003780177260404451</v>
       </c>
       <c r="D57">
-        <v>0.01997490069226127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02290553376304269</v>
+      </c>
+      <c r="E57">
+        <v>0.02454376842427897</v>
+      </c>
+      <c r="F57">
+        <v>-0.0001224270034558716</v>
+      </c>
+      <c r="G57">
+        <v>0.01434332841665138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04211826020195473</v>
+        <v>-0.04030249372476583</v>
       </c>
       <c r="C58">
-        <v>-0.0480912800108848</v>
+        <v>0.02923801910536915</v>
       </c>
       <c r="D58">
-        <v>0.06538396306248945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03376476190507412</v>
+      </c>
+      <c r="E58">
+        <v>0.7756320530336249</v>
+      </c>
+      <c r="F58">
+        <v>0.5281688699875755</v>
+      </c>
+      <c r="G58">
+        <v>-0.2784833093246074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1934063154812853</v>
+        <v>-0.1572429534823512</v>
       </c>
       <c r="C59">
-        <v>0.06596588802669348</v>
+        <v>-0.2095063057695057</v>
       </c>
       <c r="D59">
-        <v>-0.1859606848877931</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01086339762488838</v>
+      </c>
+      <c r="E59">
+        <v>0.02199182739058662</v>
+      </c>
+      <c r="F59">
+        <v>0.005279592969560055</v>
+      </c>
+      <c r="G59">
+        <v>0.03442756988822809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3053895414631331</v>
+        <v>-0.2883591504939148</v>
       </c>
       <c r="C60">
-        <v>-0.1125272379100337</v>
+        <v>0.1104742897462834</v>
       </c>
       <c r="D60">
-        <v>0.117738521311306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01547402916205188</v>
+      </c>
+      <c r="E60">
+        <v>0.1003143581469287</v>
+      </c>
+      <c r="F60">
+        <v>-0.3102347132481011</v>
+      </c>
+      <c r="G60">
+        <v>-0.1795481961648216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01935334878884499</v>
+        <v>-0.03931211637325323</v>
       </c>
       <c r="C61">
-        <v>-0.03458512394978441</v>
+        <v>0.06301105421365463</v>
       </c>
       <c r="D61">
-        <v>0.05863915225233993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006712248245598235</v>
+      </c>
+      <c r="E61">
+        <v>0.03444861244667703</v>
+      </c>
+      <c r="F61">
+        <v>-0.008989902950511988</v>
+      </c>
+      <c r="G61">
+        <v>0.09163929096872903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00795465144553364</v>
+        <v>-0.01448192753804198</v>
       </c>
       <c r="C63">
-        <v>-0.00995545717948227</v>
+        <v>0.02743221680929988</v>
       </c>
       <c r="D63">
-        <v>0.02925267684776596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009069181195684277</v>
+      </c>
+      <c r="E63">
+        <v>0.01021075241979294</v>
+      </c>
+      <c r="F63">
+        <v>0.01396137912346215</v>
+      </c>
+      <c r="G63">
+        <v>0.09433959966678668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04004665508593117</v>
+        <v>-0.05030940328735652</v>
       </c>
       <c r="C64">
-        <v>-0.02175566007254352</v>
+        <v>0.04575062571640334</v>
       </c>
       <c r="D64">
-        <v>0.03352048933811949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006100763620827126</v>
+      </c>
+      <c r="E64">
+        <v>0.007800745264695873</v>
+      </c>
+      <c r="F64">
+        <v>-0.008178510992222828</v>
+      </c>
+      <c r="G64">
+        <v>0.09371230193917812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07216556352328191</v>
+        <v>-0.07165080818845249</v>
       </c>
       <c r="C65">
-        <v>-0.04272831642220557</v>
+        <v>0.05502723558731654</v>
       </c>
       <c r="D65">
-        <v>0.07960355728754843</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01837061832873637</v>
+      </c>
+      <c r="E65">
+        <v>0.05686670968805564</v>
+      </c>
+      <c r="F65">
+        <v>-0.009789811645238282</v>
+      </c>
+      <c r="G65">
+        <v>0.04518915900518562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.02967166606684513</v>
+        <v>-0.0483176129293517</v>
       </c>
       <c r="C66">
-        <v>-0.065887414238589</v>
+        <v>0.1028360603788499</v>
       </c>
       <c r="D66">
-        <v>0.1198082144736029</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01367795938261645</v>
+      </c>
+      <c r="E66">
+        <v>0.05928642891695969</v>
+      </c>
+      <c r="F66">
+        <v>-0.02311208915635815</v>
+      </c>
+      <c r="G66">
+        <v>0.09999261974841898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05075568830661868</v>
+        <v>-0.05504192514019542</v>
       </c>
       <c r="C67">
-        <v>-0.02901781770640693</v>
+        <v>0.02988822941723242</v>
       </c>
       <c r="D67">
-        <v>0.02259088789048515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005782737639722756</v>
+      </c>
+      <c r="E67">
+        <v>0.001808610326408769</v>
+      </c>
+      <c r="F67">
+        <v>0.01068765826248613</v>
+      </c>
+      <c r="G67">
+        <v>0.07761295351116196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1810337374897989</v>
+        <v>-0.1565686449688806</v>
       </c>
       <c r="C68">
-        <v>0.107048469162775</v>
+        <v>-0.2710814675235501</v>
       </c>
       <c r="D68">
-        <v>-0.2140552381407007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004596602882530123</v>
+      </c>
+      <c r="E68">
+        <v>-0.008083757214874889</v>
+      </c>
+      <c r="F68">
+        <v>0.04559615180534565</v>
+      </c>
+      <c r="G68">
+        <v>0.01513942888595982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.05587536150216853</v>
+        <v>-0.08277492244597255</v>
       </c>
       <c r="C69">
-        <v>-0.04266854965003106</v>
+        <v>0.07177083881239713</v>
       </c>
       <c r="D69">
-        <v>0.040508429768533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008887744048553175</v>
+      </c>
+      <c r="E69">
+        <v>-0.01797737137335095</v>
+      </c>
+      <c r="F69">
+        <v>0.02375309325628011</v>
+      </c>
+      <c r="G69">
+        <v>0.1022852762955904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1666335911620101</v>
+        <v>-0.1430217940603784</v>
       </c>
       <c r="C71">
-        <v>0.07859417391165388</v>
+        <v>-0.2324880252629703</v>
       </c>
       <c r="D71">
-        <v>-0.1810223187122159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003141232946211134</v>
+      </c>
+      <c r="E71">
+        <v>0.0260267265727858</v>
+      </c>
+      <c r="F71">
+        <v>0.02812270040333128</v>
+      </c>
+      <c r="G71">
+        <v>0.06065550258640832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06365439928024715</v>
+        <v>-0.0855380770489946</v>
       </c>
       <c r="C72">
-        <v>-0.05667094800323036</v>
+        <v>0.06468025045767009</v>
       </c>
       <c r="D72">
-        <v>0.0587762053775985</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007539810184013174</v>
+      </c>
+      <c r="E72">
+        <v>0.007913291235286059</v>
+      </c>
+      <c r="F72">
+        <v>-0.03143761877061853</v>
+      </c>
+      <c r="G72">
+        <v>0.08579112839070291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4268779870693534</v>
+        <v>-0.370888905918728</v>
       </c>
       <c r="C73">
-        <v>-0.1673865268091213</v>
+        <v>0.1164566975922271</v>
       </c>
       <c r="D73">
-        <v>0.1838746576323818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02886980443839787</v>
+      </c>
+      <c r="E73">
+        <v>0.2386618121874165</v>
+      </c>
+      <c r="F73">
+        <v>-0.5350034767314398</v>
+      </c>
+      <c r="G73">
+        <v>-0.3221112509191447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08863578099262567</v>
+        <v>-0.105086223715996</v>
       </c>
       <c r="C74">
-        <v>-0.08288246201330596</v>
+        <v>0.1063789141675</v>
       </c>
       <c r="D74">
-        <v>0.09759055210173789</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009358539961672631</v>
+      </c>
+      <c r="E74">
+        <v>-0.008228613544279175</v>
+      </c>
+      <c r="F74">
+        <v>0.05632435737496608</v>
+      </c>
+      <c r="G74">
+        <v>0.07990186489549771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2054513468479875</v>
+        <v>-0.2481601994218261</v>
       </c>
       <c r="C75">
-        <v>-0.137213088029425</v>
+        <v>0.1494764632092193</v>
       </c>
       <c r="D75">
-        <v>0.133906780967335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03245031969184631</v>
+      </c>
+      <c r="E75">
+        <v>-0.09690840924097445</v>
+      </c>
+      <c r="F75">
+        <v>0.1367323949402768</v>
+      </c>
+      <c r="G75">
+        <v>0.0180865833538557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.104411103285484</v>
+        <v>-0.1155973313141353</v>
       </c>
       <c r="C76">
-        <v>-0.0922550845006511</v>
+        <v>0.1065297791087085</v>
       </c>
       <c r="D76">
-        <v>0.09494679874757415</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01790682226638216</v>
+      </c>
+      <c r="E76">
+        <v>-0.03756750727292649</v>
+      </c>
+      <c r="F76">
+        <v>0.08039278219818848</v>
+      </c>
+      <c r="G76">
+        <v>0.07346665097373471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.04381392595767809</v>
+        <v>-0.06965026869232434</v>
       </c>
       <c r="C77">
-        <v>-0.03410674925060805</v>
+        <v>0.05056417469082103</v>
       </c>
       <c r="D77">
-        <v>0.05994741271718492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01156262207911593</v>
+      </c>
+      <c r="E77">
+        <v>0.06322340491530708</v>
+      </c>
+      <c r="F77">
+        <v>0.002775648872630647</v>
+      </c>
+      <c r="G77">
+        <v>0.07894779108208874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0340261578025757</v>
+        <v>-0.04035850983861461</v>
       </c>
       <c r="C78">
-        <v>-0.03114416718130812</v>
+        <v>0.05198686053989533</v>
       </c>
       <c r="D78">
-        <v>0.04916346103013155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.008126552252207642</v>
+      </c>
+      <c r="E78">
+        <v>0.04665461376070566</v>
+      </c>
+      <c r="F78">
+        <v>-0.02643771731638087</v>
+      </c>
+      <c r="G78">
+        <v>0.09410790311742116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.002205170289387322</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.00127814180069619</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0008302927501044185</v>
+      </c>
+      <c r="E79">
+        <v>0.008088307203853128</v>
+      </c>
+      <c r="F79">
+        <v>7.567744476980721e-06</v>
+      </c>
+      <c r="G79">
+        <v>0.007257801429705686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04058519490099362</v>
+        <v>-0.04050601456065582</v>
       </c>
       <c r="C80">
-        <v>-0.03259288380498653</v>
+        <v>0.04808950615191423</v>
       </c>
       <c r="D80">
-        <v>0.06477336669299019</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01459300092865077</v>
+      </c>
+      <c r="E80">
+        <v>0.03838322580148291</v>
+      </c>
+      <c r="F80">
+        <v>0.001655756107500338</v>
+      </c>
+      <c r="G80">
+        <v>0.05682040656555158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1115028331329962</v>
+        <v>-0.1379949702562034</v>
       </c>
       <c r="C81">
-        <v>-0.07230970931092609</v>
+        <v>0.09116743857273971</v>
       </c>
       <c r="D81">
-        <v>0.06984458716689432</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01563512397684976</v>
+      </c>
+      <c r="E81">
+        <v>-0.05746265095662402</v>
+      </c>
+      <c r="F81">
+        <v>0.1060378720923257</v>
+      </c>
+      <c r="G81">
+        <v>0.04039845654803067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.03184090596176088</v>
+        <v>-0.1553744416743849</v>
       </c>
       <c r="C82">
-        <v>-0.02064250707671746</v>
+        <v>0.1065949178025843</v>
       </c>
       <c r="D82">
-        <v>0.02334886282144496</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01541283675350735</v>
+      </c>
+      <c r="E82">
+        <v>-0.1507868606354759</v>
+      </c>
+      <c r="F82">
+        <v>0.04255369305037347</v>
+      </c>
+      <c r="G82">
+        <v>0.02024426114888986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01983322153646023</v>
+        <v>-0.03364443644281101</v>
       </c>
       <c r="C83">
-        <v>-0.009445701483528851</v>
+        <v>0.03044559365285493</v>
       </c>
       <c r="D83">
-        <v>0.01814252100756988</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007515112182276358</v>
+      </c>
+      <c r="E83">
+        <v>0.03984020408760627</v>
+      </c>
+      <c r="F83">
+        <v>-0.02978379545830333</v>
+      </c>
+      <c r="G83">
+        <v>0.05361288042816839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2007018010470047</v>
+        <v>-0.2093981501333566</v>
       </c>
       <c r="C85">
-        <v>-0.1354892986481399</v>
+        <v>0.1429325209737969</v>
       </c>
       <c r="D85">
-        <v>0.1556071040026089</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01778093060166083</v>
+      </c>
+      <c r="E85">
+        <v>-0.1068550906187018</v>
+      </c>
+      <c r="F85">
+        <v>0.07142094853591888</v>
+      </c>
+      <c r="G85">
+        <v>-0.01358238201081859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007312909126884174</v>
+        <v>-0.01194758147343285</v>
       </c>
       <c r="C86">
-        <v>-0.008938458020341718</v>
+        <v>0.02430347693411185</v>
       </c>
       <c r="D86">
-        <v>0.02492298530668135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01360709960579215</v>
+      </c>
+      <c r="E86">
+        <v>0.07168583260920952</v>
+      </c>
+      <c r="F86">
+        <v>-0.02115421333600752</v>
+      </c>
+      <c r="G86">
+        <v>0.1733221101235588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004145480455396596</v>
+        <v>-0.02109521734570165</v>
       </c>
       <c r="C87">
-        <v>-0.002336454436022851</v>
+        <v>0.01536430992810388</v>
       </c>
       <c r="D87">
-        <v>0.01855520810173711</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01369301423757177</v>
+      </c>
+      <c r="E87">
+        <v>0.100143321150184</v>
+      </c>
+      <c r="F87">
+        <v>0.02176525554713898</v>
+      </c>
+      <c r="G87">
+        <v>0.1086957735936804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.07076488878065099</v>
+        <v>-0.09080004740538281</v>
       </c>
       <c r="C88">
-        <v>-0.01986480511365892</v>
+        <v>0.06747435615707478</v>
       </c>
       <c r="D88">
-        <v>0.05695819690813585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02273843434807226</v>
+      </c>
+      <c r="E88">
+        <v>0.004201898577929005</v>
+      </c>
+      <c r="F88">
+        <v>0.01772087995170764</v>
+      </c>
+      <c r="G88">
+        <v>0.1078619661786129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2745304960588829</v>
+        <v>-0.2296727592155232</v>
       </c>
       <c r="C89">
-        <v>0.1433617562422609</v>
+        <v>-0.3682537880803208</v>
       </c>
       <c r="D89">
-        <v>-0.3089818244768596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001139205951870956</v>
+      </c>
+      <c r="E89">
+        <v>-0.02811386810460067</v>
+      </c>
+      <c r="F89">
+        <v>0.01724028920630663</v>
+      </c>
+      <c r="G89">
+        <v>0.07497053397184684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2405830770899103</v>
+        <v>-0.2090756972240332</v>
       </c>
       <c r="C90">
-        <v>0.1260459590108762</v>
+        <v>-0.316588326729496</v>
       </c>
       <c r="D90">
-        <v>-0.2796588550695081</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005079989646178389</v>
+      </c>
+      <c r="E90">
+        <v>-0.01513320490498951</v>
+      </c>
+      <c r="F90">
+        <v>0.05091378075261492</v>
+      </c>
+      <c r="G90">
+        <v>0.04407740482410946</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.162753956294369</v>
+        <v>-0.1862195757755934</v>
       </c>
       <c r="C91">
-        <v>-0.09982024601764121</v>
+        <v>0.1357637554830123</v>
       </c>
       <c r="D91">
-        <v>0.08738130908076318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02327173565741811</v>
+      </c>
+      <c r="E91">
+        <v>-0.07945768928569281</v>
+      </c>
+      <c r="F91">
+        <v>0.1069575050717747</v>
+      </c>
+      <c r="G91">
+        <v>0.04700167919265566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2218454899523207</v>
+        <v>-0.1963275388832143</v>
       </c>
       <c r="C92">
-        <v>0.06105468596864233</v>
+        <v>-0.2607028441745617</v>
       </c>
       <c r="D92">
-        <v>-0.231433706847686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03839242353580605</v>
+      </c>
+      <c r="E92">
+        <v>0.01791436573468631</v>
+      </c>
+      <c r="F92">
+        <v>0.05579816414135004</v>
+      </c>
+      <c r="G92">
+        <v>0.08797977092057738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2589129849885666</v>
+        <v>-0.2312797522894613</v>
       </c>
       <c r="C93">
-        <v>0.1059570979499105</v>
+        <v>-0.3140735583101482</v>
       </c>
       <c r="D93">
-        <v>-0.2624634632300089</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01066741950750793</v>
+      </c>
+      <c r="E93">
+        <v>0.002048970738773184</v>
+      </c>
+      <c r="F93">
+        <v>0.0375873598751546</v>
+      </c>
+      <c r="G93">
+        <v>0.06042348133973009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2140924822926758</v>
+        <v>-0.3284516526491829</v>
       </c>
       <c r="C94">
-        <v>-0.1133001253903529</v>
+        <v>0.2071265684833583</v>
       </c>
       <c r="D94">
-        <v>0.1322641612706226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02715820040189929</v>
+      </c>
+      <c r="E94">
+        <v>-0.3672359405466097</v>
+      </c>
+      <c r="F94">
+        <v>0.4201579487689981</v>
+      </c>
+      <c r="G94">
+        <v>-0.3742240242259074</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06169650746018084</v>
+        <v>-0.09210079496390443</v>
       </c>
       <c r="C95">
-        <v>-0.08044964901187619</v>
+        <v>0.07521809556392725</v>
       </c>
       <c r="D95">
-        <v>0.1044264787360993</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.008339885748061972</v>
+      </c>
+      <c r="E95">
+        <v>0.1156759416666923</v>
+      </c>
+      <c r="F95">
+        <v>-0.1578059639845944</v>
+      </c>
+      <c r="G95">
+        <v>0.05056973451432456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2048262830687038</v>
+        <v>-0.1922951388890744</v>
       </c>
       <c r="C98">
-        <v>-0.08826455060628574</v>
+        <v>0.05087920443259848</v>
       </c>
       <c r="D98">
-        <v>0.05266906046080811</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01006968379467457</v>
+      </c>
+      <c r="E98">
+        <v>0.1261366107488822</v>
+      </c>
+      <c r="F98">
+        <v>-0.2034089422610772</v>
+      </c>
+      <c r="G98">
+        <v>-0.06317592051182931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007029889487921444</v>
+        <v>-0.007757890553989542</v>
       </c>
       <c r="C101">
-        <v>-0.004463708060361081</v>
+        <v>0.02088329237449008</v>
       </c>
       <c r="D101">
-        <v>0.01916425151987317</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01004202888651113</v>
+      </c>
+      <c r="E101">
+        <v>0.01130794776776719</v>
+      </c>
+      <c r="F101">
+        <v>0.01101917353627747</v>
+      </c>
+      <c r="G101">
+        <v>0.1055068965766252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1031645863464477</v>
+        <v>-0.1205079662246307</v>
       </c>
       <c r="C102">
-        <v>-0.05766265582395921</v>
+        <v>0.08965916853393784</v>
       </c>
       <c r="D102">
-        <v>0.07619988279550788</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-8.375638702738487e-05</v>
+      </c>
+      <c r="E102">
+        <v>-0.0444786109934098</v>
+      </c>
+      <c r="F102">
+        <v>0.01918394135093658</v>
+      </c>
+      <c r="G102">
+        <v>0.01688902552612462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1571951923635967</v>
+        <v>-0.02097063300524608</v>
       </c>
       <c r="C104">
-        <v>0.8520899287520236</v>
+        <v>-0.02858048534012402</v>
       </c>
       <c r="D104">
-        <v>0.48148448519695</v>
+        <v>0.9865457740645611</v>
+      </c>
+      <c r="E104">
+        <v>-0.0805205519666205</v>
+      </c>
+      <c r="F104">
+        <v>0.02314640159433909</v>
+      </c>
+      <c r="G104">
+        <v>-0.03790817613022154</v>
       </c>
     </row>
   </sheetData>
